--- a/biology/Botanique/Corypha/Corypha.xlsx
+++ b/biology/Botanique/Corypha/Corypha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corypha est un genre de la famille des Arecaceae (Palmiers) comprenant six espèces natives de l'Inde, de la Malaisie, de l'Indonésie, des Philippines, de Nouvelle-Guinée et du Nord-Est de l'Australie. Ce sont des palmiers possédant des feuilles palmées ou costapalmées, d'une forme ronde, longues de 2 à 5 mètres, garnies de longs pétioles robustes. Ils peuvent mesurer de 20 à 40 mètres de haut, avec un stipe (tronc) dont le diamètre atteint 1 à 3 mètres.
 </t>
@@ -511,7 +523,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles et les fibres sont souvent utilisées pour la production de biens artisanaux, comme des paniers.
 </t>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sous-famille des Coryphoideae
 Tribu des Corypheae</t>
@@ -573,12 +589,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Corypha griffithiana
 Corypha lecomtei
-Corypha microclada [1]
-Corypha taliera [2]
+Corypha microclada 
+Corypha taliera 
 Corypha umbraculifera - Tallipot
 Corypha utan (syn. Corypha elata, Corypha gebang)</t>
         </is>
